--- a/biology/Zoologie/Féroce_d'avocat/Féroce_d'avocat.xlsx
+++ b/biology/Zoologie/Féroce_d'avocat/Féroce_d'avocat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9roce_d%27avocat</t>
+          <t>Féroce_d'avocat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le féroce d'avocat[2],[3] est un mets à base d'avocats écrasés, de morue salée préparée en chiquetaille[4], de piment et de divers autres ingrédients[5],[6].
-Mise en bouche traditionnelle de la cuisine antillaise (en particulier en Martinique[7]), le féroce d'avocat est surtout servi en apéritif ou en entrée.
+Le féroce d'avocat, est un mets à base d'avocats écrasés, de morue salée préparée en chiquetaille, de piment et de divers autres ingrédients,.
+Mise en bouche traditionnelle de la cuisine antillaise (en particulier en Martinique), le féroce d'avocat est surtout servi en apéritif ou en entrée.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9roce_d%27avocat</t>
+          <t>Féroce_d'avocat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du plat découle du piment omniprésent dans le goût du mets[8].
-Ce plat était traditionnellement réalisé en Martinique pour le petit déjeuner dans certaines familles[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du plat découle du piment omniprésent dans le goût du mets.
+Ce plat était traditionnellement réalisé en Martinique pour le petit déjeuner dans certaines familles.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9roce_d%27avocat</t>
+          <t>Féroce_d'avocat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Variante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le féroce d'avocat, bien que la recette traditionnelle soit élaborée avec de la morue, peut être fait avec du thon ou encore du crabe.
 </t>
